--- a/story/Activity Story 活动剧情/act13d0 Rewinding Breeze 踏寻往昔之风 在りし日の風を求めて/level_act13d0_st06.xlsx
+++ b/story/Activity Story 活动剧情/act13d0 Rewinding Breeze 踏寻往昔之风 在りし日の風を求めて/level_act13d0_st06.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1408" uniqueCount="1313">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1408" uniqueCount="1312">
   <si>
     <t>zh_CN</t>
   </si>
@@ -4100,7 +4100,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="배우B"]  우리는 함께 고향을 등지고 떠나 동거동락하며 함께 성장했지. 피는 섞이지 않았지만 가족이나 다름없었다. 그런데 이렇게 다른 결말로 향해가게 될 줄이야…
+    <t xml:space="preserve">[name="배우B"]  우리는 함께 고향을 등지고 떠나 동고동락하며 함께 성장했지. 피는 섞이지 않았지만 가족이나 다름없었다. 그런데 이렇게 다른 결말로 향해가게 될 줄이야…
 </t>
   </si>
   <si>
@@ -4456,7 +4456,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="인사부 오퍼레이터"]  그 반응을 보아하니…..박사님도 기억하시죠?
+    <t xml:space="preserve">[name="인사부 오퍼레이터"]  그 반응을 보아하니……박사님도 기억하시죠?
 </t>
   </si>
   <si>
@@ -4832,10 +4832,6 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="인사부 오퍼레이터"]  …….
-</t>
-  </si>
-  <si>
     <t xml:space="preserve">[name="인사부 오퍼레이터"]  네.
 </t>
   </si>
@@ -5068,7 +5064,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="팬텀"]  …….무슨 소리지? 옷장?
+    <t xml:space="preserve">[name="팬텀"]  ……무슨 소리지? 옷장?
 </t>
   </si>
   <si>
@@ -8996,7 +8992,7 @@
         <v>721</v>
       </c>
       <c r="D241" t="s">
-        <v>1205</v>
+        <v>1045</v>
       </c>
     </row>
     <row r="242" spans="1:4">
@@ -9010,7 +9006,7 @@
         <v>880</v>
       </c>
       <c r="D242" t="s">
-        <v>1206</v>
+        <v>1205</v>
       </c>
     </row>
     <row r="243" spans="1:4">
@@ -9024,7 +9020,7 @@
         <v>881</v>
       </c>
       <c r="D243" t="s">
-        <v>1207</v>
+        <v>1206</v>
       </c>
     </row>
     <row r="244" spans="1:4">
@@ -9038,7 +9034,7 @@
         <v>882</v>
       </c>
       <c r="D244" t="s">
-        <v>1208</v>
+        <v>1207</v>
       </c>
     </row>
     <row r="245" spans="1:4">
@@ -9052,7 +9048,7 @@
         <v>883</v>
       </c>
       <c r="D245" t="s">
-        <v>1209</v>
+        <v>1208</v>
       </c>
     </row>
     <row r="246" spans="1:4">
@@ -9066,7 +9062,7 @@
         <v>884</v>
       </c>
       <c r="D246" t="s">
-        <v>1210</v>
+        <v>1209</v>
       </c>
     </row>
     <row r="247" spans="1:4">
@@ -9080,7 +9076,7 @@
         <v>885</v>
       </c>
       <c r="D247" t="s">
-        <v>1211</v>
+        <v>1210</v>
       </c>
     </row>
     <row r="248" spans="1:4">
@@ -9094,7 +9090,7 @@
         <v>886</v>
       </c>
       <c r="D248" t="s">
-        <v>1212</v>
+        <v>1211</v>
       </c>
     </row>
     <row r="249" spans="1:4">
@@ -9108,7 +9104,7 @@
         <v>887</v>
       </c>
       <c r="D249" t="s">
-        <v>1213</v>
+        <v>1212</v>
       </c>
     </row>
     <row r="250" spans="1:4">
@@ -9122,7 +9118,7 @@
         <v>888</v>
       </c>
       <c r="D250" t="s">
-        <v>1214</v>
+        <v>1213</v>
       </c>
     </row>
     <row r="251" spans="1:4">
@@ -9136,7 +9132,7 @@
         <v>889</v>
       </c>
       <c r="D251" t="s">
-        <v>1215</v>
+        <v>1214</v>
       </c>
     </row>
     <row r="252" spans="1:4">
@@ -9150,7 +9146,7 @@
         <v>890</v>
       </c>
       <c r="D252" t="s">
-        <v>1216</v>
+        <v>1215</v>
       </c>
     </row>
     <row r="253" spans="1:4">
@@ -9164,7 +9160,7 @@
         <v>891</v>
       </c>
       <c r="D253" t="s">
-        <v>1217</v>
+        <v>1216</v>
       </c>
     </row>
     <row r="254" spans="1:4">
@@ -9178,7 +9174,7 @@
         <v>892</v>
       </c>
       <c r="D254" t="s">
-        <v>1218</v>
+        <v>1217</v>
       </c>
     </row>
     <row r="255" spans="1:4">
@@ -9192,7 +9188,7 @@
         <v>893</v>
       </c>
       <c r="D255" t="s">
-        <v>1219</v>
+        <v>1218</v>
       </c>
     </row>
     <row r="256" spans="1:4">
@@ -9206,7 +9202,7 @@
         <v>894</v>
       </c>
       <c r="D256" t="s">
-        <v>1220</v>
+        <v>1219</v>
       </c>
     </row>
     <row r="257" spans="1:4">
@@ -9220,7 +9216,7 @@
         <v>895</v>
       </c>
       <c r="D257" t="s">
-        <v>1221</v>
+        <v>1220</v>
       </c>
     </row>
     <row r="258" spans="1:4">
@@ -9248,7 +9244,7 @@
         <v>896</v>
       </c>
       <c r="D259" t="s">
-        <v>1222</v>
+        <v>1221</v>
       </c>
     </row>
     <row r="260" spans="1:4">
@@ -9262,7 +9258,7 @@
         <v>897</v>
       </c>
       <c r="D260" t="s">
-        <v>1223</v>
+        <v>1222</v>
       </c>
     </row>
     <row r="261" spans="1:4">
@@ -9276,7 +9272,7 @@
         <v>898</v>
       </c>
       <c r="D261" t="s">
-        <v>1224</v>
+        <v>1223</v>
       </c>
     </row>
     <row r="262" spans="1:4">
@@ -9290,7 +9286,7 @@
         <v>899</v>
       </c>
       <c r="D262" t="s">
-        <v>1225</v>
+        <v>1224</v>
       </c>
     </row>
     <row r="263" spans="1:4">
@@ -9304,7 +9300,7 @@
         <v>900</v>
       </c>
       <c r="D263" t="s">
-        <v>1226</v>
+        <v>1225</v>
       </c>
     </row>
     <row r="264" spans="1:4">
@@ -9318,7 +9314,7 @@
         <v>901</v>
       </c>
       <c r="D264" t="s">
-        <v>1227</v>
+        <v>1226</v>
       </c>
     </row>
     <row r="265" spans="1:4">
@@ -9332,7 +9328,7 @@
         <v>902</v>
       </c>
       <c r="D265" t="s">
-        <v>1228</v>
+        <v>1227</v>
       </c>
     </row>
     <row r="266" spans="1:4">
@@ -9346,7 +9342,7 @@
         <v>903</v>
       </c>
       <c r="D266" t="s">
-        <v>1229</v>
+        <v>1228</v>
       </c>
     </row>
     <row r="267" spans="1:4">
@@ -9360,7 +9356,7 @@
         <v>904</v>
       </c>
       <c r="D267" t="s">
-        <v>1230</v>
+        <v>1229</v>
       </c>
     </row>
     <row r="268" spans="1:4">
@@ -9374,7 +9370,7 @@
         <v>905</v>
       </c>
       <c r="D268" t="s">
-        <v>1231</v>
+        <v>1230</v>
       </c>
     </row>
     <row r="269" spans="1:4">
@@ -9402,7 +9398,7 @@
         <v>906</v>
       </c>
       <c r="D270" t="s">
-        <v>1232</v>
+        <v>1231</v>
       </c>
     </row>
     <row r="271" spans="1:4">
@@ -9416,7 +9412,7 @@
         <v>907</v>
       </c>
       <c r="D271" t="s">
-        <v>1233</v>
+        <v>1232</v>
       </c>
     </row>
     <row r="272" spans="1:4">
@@ -9430,7 +9426,7 @@
         <v>908</v>
       </c>
       <c r="D272" t="s">
-        <v>1234</v>
+        <v>1233</v>
       </c>
     </row>
     <row r="273" spans="1:4">
@@ -9444,7 +9440,7 @@
         <v>909</v>
       </c>
       <c r="D273" t="s">
-        <v>1235</v>
+        <v>1234</v>
       </c>
     </row>
     <row r="274" spans="1:4">
@@ -9458,7 +9454,7 @@
         <v>910</v>
       </c>
       <c r="D274" t="s">
-        <v>1236</v>
+        <v>1235</v>
       </c>
     </row>
     <row r="275" spans="1:4">
@@ -9472,7 +9468,7 @@
         <v>911</v>
       </c>
       <c r="D275" t="s">
-        <v>1237</v>
+        <v>1236</v>
       </c>
     </row>
     <row r="276" spans="1:4">
@@ -9486,7 +9482,7 @@
         <v>912</v>
       </c>
       <c r="D276" t="s">
-        <v>1238</v>
+        <v>1237</v>
       </c>
     </row>
     <row r="277" spans="1:4">
@@ -9500,7 +9496,7 @@
         <v>913</v>
       </c>
       <c r="D277" t="s">
-        <v>1239</v>
+        <v>1238</v>
       </c>
     </row>
     <row r="278" spans="1:4">
@@ -9514,7 +9510,7 @@
         <v>914</v>
       </c>
       <c r="D278" t="s">
-        <v>1240</v>
+        <v>1239</v>
       </c>
     </row>
     <row r="279" spans="1:4">
@@ -9528,7 +9524,7 @@
         <v>915</v>
       </c>
       <c r="D279" t="s">
-        <v>1241</v>
+        <v>1240</v>
       </c>
     </row>
     <row r="280" spans="1:4">
@@ -9542,7 +9538,7 @@
         <v>916</v>
       </c>
       <c r="D280" t="s">
-        <v>1242</v>
+        <v>1241</v>
       </c>
     </row>
     <row r="281" spans="1:4">
@@ -9556,7 +9552,7 @@
         <v>917</v>
       </c>
       <c r="D281" t="s">
-        <v>1243</v>
+        <v>1242</v>
       </c>
     </row>
     <row r="282" spans="1:4">
@@ -9570,7 +9566,7 @@
         <v>918</v>
       </c>
       <c r="D282" t="s">
-        <v>1244</v>
+        <v>1243</v>
       </c>
     </row>
     <row r="283" spans="1:4">
@@ -9584,7 +9580,7 @@
         <v>919</v>
       </c>
       <c r="D283" t="s">
-        <v>1245</v>
+        <v>1244</v>
       </c>
     </row>
     <row r="284" spans="1:4">
@@ -9598,7 +9594,7 @@
         <v>920</v>
       </c>
       <c r="D284" t="s">
-        <v>1246</v>
+        <v>1245</v>
       </c>
     </row>
     <row r="285" spans="1:4">
@@ -9612,7 +9608,7 @@
         <v>921</v>
       </c>
       <c r="D285" t="s">
-        <v>1247</v>
+        <v>1246</v>
       </c>
     </row>
     <row r="286" spans="1:4">
@@ -9626,7 +9622,7 @@
         <v>922</v>
       </c>
       <c r="D286" t="s">
-        <v>1248</v>
+        <v>1247</v>
       </c>
     </row>
     <row r="287" spans="1:4">
@@ -9640,7 +9636,7 @@
         <v>923</v>
       </c>
       <c r="D287" t="s">
-        <v>1249</v>
+        <v>1248</v>
       </c>
     </row>
     <row r="288" spans="1:4">
@@ -9668,7 +9664,7 @@
         <v>924</v>
       </c>
       <c r="D289" t="s">
-        <v>1250</v>
+        <v>1249</v>
       </c>
     </row>
     <row r="290" spans="1:4">
@@ -9682,7 +9678,7 @@
         <v>925</v>
       </c>
       <c r="D290" t="s">
-        <v>1251</v>
+        <v>1250</v>
       </c>
     </row>
     <row r="291" spans="1:4">
@@ -9696,7 +9692,7 @@
         <v>926</v>
       </c>
       <c r="D291" t="s">
-        <v>1252</v>
+        <v>1251</v>
       </c>
     </row>
     <row r="292" spans="1:4">
@@ -9710,7 +9706,7 @@
         <v>927</v>
       </c>
       <c r="D292" t="s">
-        <v>1253</v>
+        <v>1252</v>
       </c>
     </row>
     <row r="293" spans="1:4">
@@ -9724,7 +9720,7 @@
         <v>928</v>
       </c>
       <c r="D293" t="s">
-        <v>1254</v>
+        <v>1253</v>
       </c>
     </row>
     <row r="294" spans="1:4">
@@ -9738,7 +9734,7 @@
         <v>929</v>
       </c>
       <c r="D294" t="s">
-        <v>1255</v>
+        <v>1254</v>
       </c>
     </row>
     <row r="295" spans="1:4">
@@ -9752,7 +9748,7 @@
         <v>930</v>
       </c>
       <c r="D295" t="s">
-        <v>1256</v>
+        <v>1255</v>
       </c>
     </row>
     <row r="296" spans="1:4">
@@ -9766,7 +9762,7 @@
         <v>931</v>
       </c>
       <c r="D296" t="s">
-        <v>1257</v>
+        <v>1256</v>
       </c>
     </row>
     <row r="297" spans="1:4">
@@ -9780,7 +9776,7 @@
         <v>932</v>
       </c>
       <c r="D297" t="s">
-        <v>1258</v>
+        <v>1257</v>
       </c>
     </row>
     <row r="298" spans="1:4">
@@ -9794,7 +9790,7 @@
         <v>933</v>
       </c>
       <c r="D298" t="s">
-        <v>1259</v>
+        <v>1258</v>
       </c>
     </row>
     <row r="299" spans="1:4">
@@ -9808,7 +9804,7 @@
         <v>934</v>
       </c>
       <c r="D299" t="s">
-        <v>1260</v>
+        <v>1259</v>
       </c>
     </row>
     <row r="300" spans="1:4">
@@ -9822,7 +9818,7 @@
         <v>935</v>
       </c>
       <c r="D300" t="s">
-        <v>1261</v>
+        <v>1260</v>
       </c>
     </row>
     <row r="301" spans="1:4">
@@ -9836,7 +9832,7 @@
         <v>813</v>
       </c>
       <c r="D301" t="s">
-        <v>1262</v>
+        <v>1261</v>
       </c>
     </row>
     <row r="302" spans="1:4">
@@ -9850,7 +9846,7 @@
         <v>936</v>
       </c>
       <c r="D302" t="s">
-        <v>1263</v>
+        <v>1262</v>
       </c>
     </row>
     <row r="303" spans="1:4">
@@ -9864,7 +9860,7 @@
         <v>937</v>
       </c>
       <c r="D303" t="s">
-        <v>1264</v>
+        <v>1263</v>
       </c>
     </row>
     <row r="304" spans="1:4">
@@ -9892,7 +9888,7 @@
         <v>939</v>
       </c>
       <c r="D305" t="s">
-        <v>1265</v>
+        <v>1264</v>
       </c>
     </row>
     <row r="306" spans="1:4">
@@ -9906,7 +9902,7 @@
         <v>940</v>
       </c>
       <c r="D306" t="s">
-        <v>1266</v>
+        <v>1265</v>
       </c>
     </row>
     <row r="307" spans="1:4">
@@ -9920,7 +9916,7 @@
         <v>941</v>
       </c>
       <c r="D307" t="s">
-        <v>1267</v>
+        <v>1266</v>
       </c>
     </row>
     <row r="308" spans="1:4">
@@ -9934,7 +9930,7 @@
         <v>942</v>
       </c>
       <c r="D308" t="s">
-        <v>1268</v>
+        <v>1267</v>
       </c>
     </row>
     <row r="309" spans="1:4">
@@ -9948,7 +9944,7 @@
         <v>943</v>
       </c>
       <c r="D309" t="s">
-        <v>1269</v>
+        <v>1268</v>
       </c>
     </row>
     <row r="310" spans="1:4">
@@ -9962,7 +9958,7 @@
         <v>944</v>
       </c>
       <c r="D310" t="s">
-        <v>1270</v>
+        <v>1269</v>
       </c>
     </row>
     <row r="311" spans="1:4">
@@ -9976,7 +9972,7 @@
         <v>945</v>
       </c>
       <c r="D311" t="s">
-        <v>1271</v>
+        <v>1270</v>
       </c>
     </row>
     <row r="312" spans="1:4">
@@ -9990,7 +9986,7 @@
         <v>946</v>
       </c>
       <c r="D312" t="s">
-        <v>1272</v>
+        <v>1271</v>
       </c>
     </row>
     <row r="313" spans="1:4">
@@ -10004,7 +10000,7 @@
         <v>947</v>
       </c>
       <c r="D313" t="s">
-        <v>1273</v>
+        <v>1272</v>
       </c>
     </row>
     <row r="314" spans="1:4">
@@ -10018,7 +10014,7 @@
         <v>948</v>
       </c>
       <c r="D314" t="s">
-        <v>1274</v>
+        <v>1273</v>
       </c>
     </row>
     <row r="315" spans="1:4">
@@ -10032,7 +10028,7 @@
         <v>949</v>
       </c>
       <c r="D315" t="s">
-        <v>1275</v>
+        <v>1274</v>
       </c>
     </row>
     <row r="316" spans="1:4">
@@ -10046,7 +10042,7 @@
         <v>950</v>
       </c>
       <c r="D316" t="s">
-        <v>1276</v>
+        <v>1275</v>
       </c>
     </row>
     <row r="317" spans="1:4">
@@ -10060,7 +10056,7 @@
         <v>951</v>
       </c>
       <c r="D317" t="s">
-        <v>1277</v>
+        <v>1276</v>
       </c>
     </row>
     <row r="318" spans="1:4">
@@ -10074,7 +10070,7 @@
         <v>952</v>
       </c>
       <c r="D318" t="s">
-        <v>1278</v>
+        <v>1277</v>
       </c>
     </row>
     <row r="319" spans="1:4">
@@ -10088,7 +10084,7 @@
         <v>953</v>
       </c>
       <c r="D319" t="s">
-        <v>1279</v>
+        <v>1278</v>
       </c>
     </row>
     <row r="320" spans="1:4">
@@ -10102,7 +10098,7 @@
         <v>954</v>
       </c>
       <c r="D320" t="s">
-        <v>1280</v>
+        <v>1279</v>
       </c>
     </row>
     <row r="321" spans="1:4">
@@ -10116,7 +10112,7 @@
         <v>955</v>
       </c>
       <c r="D321" t="s">
-        <v>1281</v>
+        <v>1280</v>
       </c>
     </row>
     <row r="322" spans="1:4">
@@ -10130,7 +10126,7 @@
         <v>956</v>
       </c>
       <c r="D322" t="s">
-        <v>1282</v>
+        <v>1281</v>
       </c>
     </row>
     <row r="323" spans="1:4">
@@ -10144,7 +10140,7 @@
         <v>957</v>
       </c>
       <c r="D323" t="s">
-        <v>1283</v>
+        <v>1282</v>
       </c>
     </row>
     <row r="324" spans="1:4">
@@ -10158,7 +10154,7 @@
         <v>958</v>
       </c>
       <c r="D324" t="s">
-        <v>1284</v>
+        <v>1283</v>
       </c>
     </row>
     <row r="325" spans="1:4">
@@ -10172,7 +10168,7 @@
         <v>959</v>
       </c>
       <c r="D325" t="s">
-        <v>1285</v>
+        <v>1284</v>
       </c>
     </row>
     <row r="326" spans="1:4">
@@ -10186,7 +10182,7 @@
         <v>960</v>
       </c>
       <c r="D326" t="s">
-        <v>1286</v>
+        <v>1285</v>
       </c>
     </row>
     <row r="327" spans="1:4">
@@ -10200,7 +10196,7 @@
         <v>961</v>
       </c>
       <c r="D327" t="s">
-        <v>1287</v>
+        <v>1286</v>
       </c>
     </row>
     <row r="328" spans="1:4">
@@ -10214,7 +10210,7 @@
         <v>962</v>
       </c>
       <c r="D328" t="s">
-        <v>1288</v>
+        <v>1287</v>
       </c>
     </row>
     <row r="329" spans="1:4">
@@ -10228,7 +10224,7 @@
         <v>963</v>
       </c>
       <c r="D329" t="s">
-        <v>1289</v>
+        <v>1288</v>
       </c>
     </row>
     <row r="330" spans="1:4">
@@ -10242,7 +10238,7 @@
         <v>964</v>
       </c>
       <c r="D330" t="s">
-        <v>1290</v>
+        <v>1289</v>
       </c>
     </row>
     <row r="331" spans="1:4">
@@ -10256,7 +10252,7 @@
         <v>965</v>
       </c>
       <c r="D331" t="s">
-        <v>1291</v>
+        <v>1290</v>
       </c>
     </row>
     <row r="332" spans="1:4">
@@ -10270,7 +10266,7 @@
         <v>966</v>
       </c>
       <c r="D332" t="s">
-        <v>1292</v>
+        <v>1291</v>
       </c>
     </row>
     <row r="333" spans="1:4">
@@ -10284,7 +10280,7 @@
         <v>967</v>
       </c>
       <c r="D333" t="s">
-        <v>1293</v>
+        <v>1292</v>
       </c>
     </row>
     <row r="334" spans="1:4">
@@ -10298,7 +10294,7 @@
         <v>968</v>
       </c>
       <c r="D334" t="s">
-        <v>1294</v>
+        <v>1293</v>
       </c>
     </row>
     <row r="335" spans="1:4">
@@ -10312,7 +10308,7 @@
         <v>969</v>
       </c>
       <c r="D335" t="s">
-        <v>1295</v>
+        <v>1294</v>
       </c>
     </row>
     <row r="336" spans="1:4">
@@ -10326,7 +10322,7 @@
         <v>970</v>
       </c>
       <c r="D336" t="s">
-        <v>1296</v>
+        <v>1295</v>
       </c>
     </row>
     <row r="337" spans="1:4">
@@ -10340,7 +10336,7 @@
         <v>971</v>
       </c>
       <c r="D337" t="s">
-        <v>1297</v>
+        <v>1296</v>
       </c>
     </row>
     <row r="338" spans="1:4">
@@ -10354,7 +10350,7 @@
         <v>972</v>
       </c>
       <c r="D338" t="s">
-        <v>1298</v>
+        <v>1297</v>
       </c>
     </row>
     <row r="339" spans="1:4">
@@ -10368,7 +10364,7 @@
         <v>973</v>
       </c>
       <c r="D339" t="s">
-        <v>1299</v>
+        <v>1298</v>
       </c>
     </row>
     <row r="340" spans="1:4">
@@ -10382,7 +10378,7 @@
         <v>974</v>
       </c>
       <c r="D340" t="s">
-        <v>1300</v>
+        <v>1299</v>
       </c>
     </row>
     <row r="341" spans="1:4">
@@ -10396,7 +10392,7 @@
         <v>975</v>
       </c>
       <c r="D341" t="s">
-        <v>1301</v>
+        <v>1300</v>
       </c>
     </row>
     <row r="342" spans="1:4">
@@ -10410,7 +10406,7 @@
         <v>976</v>
       </c>
       <c r="D342" t="s">
-        <v>1302</v>
+        <v>1301</v>
       </c>
     </row>
     <row r="343" spans="1:4">
@@ -10424,7 +10420,7 @@
         <v>977</v>
       </c>
       <c r="D343" t="s">
-        <v>1303</v>
+        <v>1302</v>
       </c>
     </row>
     <row r="344" spans="1:4">
@@ -10438,7 +10434,7 @@
         <v>978</v>
       </c>
       <c r="D344" t="s">
-        <v>1304</v>
+        <v>1303</v>
       </c>
     </row>
     <row r="345" spans="1:4">
@@ -10452,7 +10448,7 @@
         <v>979</v>
       </c>
       <c r="D345" t="s">
-        <v>1305</v>
+        <v>1304</v>
       </c>
     </row>
     <row r="346" spans="1:4">
@@ -10466,7 +10462,7 @@
         <v>980</v>
       </c>
       <c r="D346" t="s">
-        <v>1306</v>
+        <v>1305</v>
       </c>
     </row>
     <row r="347" spans="1:4">
@@ -10480,7 +10476,7 @@
         <v>981</v>
       </c>
       <c r="D347" t="s">
-        <v>1307</v>
+        <v>1306</v>
       </c>
     </row>
     <row r="348" spans="1:4">
@@ -10494,7 +10490,7 @@
         <v>982</v>
       </c>
       <c r="D348" t="s">
-        <v>1308</v>
+        <v>1307</v>
       </c>
     </row>
     <row r="349" spans="1:4">
@@ -10508,7 +10504,7 @@
         <v>983</v>
       </c>
       <c r="D349" t="s">
-        <v>1309</v>
+        <v>1308</v>
       </c>
     </row>
     <row r="350" spans="1:4">
@@ -10522,7 +10518,7 @@
         <v>984</v>
       </c>
       <c r="D350" t="s">
-        <v>1310</v>
+        <v>1309</v>
       </c>
     </row>
     <row r="351" spans="1:4">
@@ -10536,7 +10532,7 @@
         <v>985</v>
       </c>
       <c r="D351" t="s">
-        <v>1311</v>
+        <v>1310</v>
       </c>
     </row>
     <row r="352" spans="1:4">
@@ -10550,7 +10546,7 @@
         <v>986</v>
       </c>
       <c r="D352" t="s">
-        <v>1312</v>
+        <v>1311</v>
       </c>
     </row>
   </sheetData>

--- a/story/Activity Story 活动剧情/act13d0 Rewinding Breeze 踏寻往昔之风 在りし日の風を求めて/level_act13d0_st06.xlsx
+++ b/story/Activity Story 活动剧情/act13d0 Rewinding Breeze 踏寻往昔之风 在りし日の風を求めて/level_act13d0_st06.xlsx
@@ -3120,7 +3120,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="Human Resources Operator"]  So we’d probably be telling her “this is your chance to give him a public execution,” right? It’s hard to even guess what would happen afterwards. 
+    <t xml:space="preserve">[name="Human Resources Operator"]  So we’d probably be telling her 'this is your chance to give him a public execution,' right? It’s hard to even guess what would happen afterwards. 
 </t>
   </si>
   <si>
@@ -4400,7 +4400,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="인사부 오퍼레이터"]  아뇨. 임무 기록에 따르면, 지금은 외부 임무가 없는 걸로 나와 있어요.
+    <t xml:space="preserve">[name="인사부 오퍼레이터"]  아뇨. 임무 기록에 따르면, 지금은 외근 임무가 없는 걸로 나와 있어요.
 </t>
   </si>
   <si>
@@ -5028,7 +5028,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="인사부 오퍼레이터"](이 팬텀이라는 분… 정말 괜찮은 거 맞죠? 상태가 많이 안 좋아 보이는데, 의료 부서에 재검사 요청하는 게 어떨까요??)
+    <t xml:space="preserve">[name="인사부 오퍼레이터"](이 팬텀이라는 분… 정말 괜찮은 거 맞죠? 상태가 많이 안 좋아 보이는데, 의료부에 재검사 요청하는 게 어떨까요??)
 </t>
   </si>
   <si>

--- a/story/Activity Story 活动剧情/act13d0 Rewinding Breeze 踏寻往昔之风 在りし日の風を求めて/level_act13d0_st06.xlsx
+++ b/story/Activity Story 活动剧情/act13d0 Rewinding Breeze 踏寻往昔之风 在りし日の風を求めて/level_act13d0_st06.xlsx
@@ -2660,11 +2660,11 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">Mesdames et Messieurs, we thank you for coming tonight. Let us give our eyes and ears to the troupe’s latest production!
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">We guarantee you won’t see tonight’s show anywhere else. It’s one-of-a-kind, exclusive to the last. Your bliss to know here and here alone!
+    <t xml:space="preserve">Mesdames et Messieurs, we thank you for coming tonight. Let us give our eyes and ears to the troupe's latest production!
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">We guarantee you won't see tonight's show anywhere else. It's one-of-a-kind, exclusive to the last. Your bliss to know here and here alone!
 </t>
   </si>
   <si>
@@ -2748,7 +2748,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="Performer A"]  You ask who we are. You don’t even recognize us.
+    <t xml:space="preserve">[name="Performer A"]  You ask who we are. You don't even recognize us.
 </t>
   </si>
   <si>
@@ -2828,7 +2828,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="Phantom"]  Wait! Don’t leave— 
+    <t xml:space="preserve">[name="Phantom"]  Wait! Don't leave— 
 </t>
   </si>
   <si>
@@ -2872,7 +2872,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">8:10 AM \ Overcast, rain
+    <t xml:space="preserve">8:10 A.M. \ Overcast, rain
 </t>
   </si>
   <si>
@@ -2880,11 +2880,11 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="Human Resources Operator"] All Operators in this group should be accounted for here. 1, 2, 3... good, we’re alright.
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[name="Human Resources Operator"] Hm? This one’s... a previous number? Someone must’ve got it mixed up with this batch. Who did these papers? Gotta be pretty careless to mix up whole groups... 
+    <t xml:space="preserve">[name="Human Resources Operator"] All Operators in this group should be accounted for here. 1, 2, 3... good, we're alright.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Human Resources Operator"] Hm? This one's... a previous number? Someone must've got it mixed up with this batch. Who did these papers? Gotta be pretty careless to mix up whole groups... 
 </t>
   </si>
   <si>
@@ -2892,7 +2892,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="Human Resources Operator"]  Who’s that? I don’t remember any operator by that name... Huh? And why’s a part of the file missing?  
+    <t xml:space="preserve">[name="Human Resources Operator"]  Who's that? I don't remember any operator by that name... Huh? And why's a part of the file missing?  
 </t>
   </si>
   <si>
@@ -2900,7 +2900,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="Human Resources Operator"]  Weird. What’s going on here?
+    <t xml:space="preserve">[name="Human Resources Operator"]  Weird. What's going on here?
 </t>
   </si>
   <si>
@@ -2912,19 +2912,19 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="Mint"]  There are parts I’m still not fully clear, but Skyfire’s been helping me a lot all throughout! Don’t worry!
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[name="Mint"]  Oh, that’s right, Doctor! I’ve read the operator’s manual Skyfire gave to me front to back!
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[name="Mint"]  It’s got all sorts of interesting notes in it, and the writing is clear as crystal! It’s honestly a joy to read! Who’s the author? I have to know! They’re amazing!
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[name="Mint"]  Oh, and the canteen’s food is delicious! Skyfire said I’ve gained plenty enough weight and she forced this pamphlet on me for Miss Hibiscus’s healthy meals, but she’s not hiding the fact she eats just as well too!
+    <t xml:space="preserve">[name="Mint"]  There are parts I'm still not fully clear, but Skyfire's been helping me a lot all throughout! Don't worry!
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Mint"]  Oh, that's right, Doctor! I've read the operator's manual Skyfire gave to me front to back!
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Mint"]  It's got all sorts of interesting notes in it, and the writing is clear as crystal! It's honestly a joy to read! Who's the author? I have to know! They're amazing!
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Mint"]  Oh, and the canteen's food is delicious! Skyfire said I've gained plenty enough weight and she forced this pamphlet on me for Miss Hibiscus's healthy meals, but she's not hiding the fact she eats just as well too!
 </t>
   </si>
   <si>
@@ -2936,7 +2936,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[Decision(options="Not at all. Seeing you take so well to things makes me happy. ;......;No sweat. Truth is Skyfire’s packed on the pounds too. ", values="1;2;3")]
+    <t xml:space="preserve">[Decision(options="Not at all. Seeing you take so well to things makes me happy. ;......;No sweat. Truth is Skyfire's packed on the pounds too. ", values="1;2;3")]
 </t>
   </si>
   <si>
@@ -2944,19 +2944,19 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="Mint"]  Everyone here’s so kind. They all take care of me so well, too. It makes me very happy.
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[name="Mint"]  The sooner I can become more reliable, the better. I’d like nothing more than to be able to help out with everyone.
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[name="Mint"]  Sorry. I’m sorry. I know everyone gets fed up with me when I talk.
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[name="Mint"]  *whimper* I’ll try and watch out in future...
+    <t xml:space="preserve">[name="Mint"]  Everyone here's so kind. They all take care of me so well, too. It makes me very happy.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Mint"]  The sooner I can become more reliable, the better. I'd like nothing more than to be able to help out with everyone.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Mint"]  Sorry. I'm sorry. I know everyone gets fed up with me when I talk.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Mint"]  *whimper* I'll try and watch out in future...
 </t>
   </si>
   <si>
@@ -2964,11 +2964,11 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="Mint"]  ...Oh, don’t let Skyfire hear that. If she gets mad, she’ll burn down your whole office, Doctor, no doubt about it...
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[name="Mint"]  Oh! Someone’s here.
+    <t xml:space="preserve">[name="Mint"]  ...Oh, don't let Skyfire hear that. If she gets mad, she'll burn down your whole office, Doctor, no doubt about it...
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Mint"]  Oh! Someone's here.
 </t>
   </si>
   <si>
@@ -2980,11 +2980,11 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="Human Resources Operator"]There’s a file that needs checking over. Do you have the time right now?
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[name="Human Resources Operator"]Dr. Kal’tsit and Amiya both said I should come here to ask you about this.
+    <t xml:space="preserve">[name="Human Resources Operator"]There's a file that needs checking over. Do you have the time right now?
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Human Resources Operator"]Dr. Kal'tsit and Amiya both said I should come here to ask you about this.
 </t>
   </si>
   <si>
@@ -3000,23 +3000,23 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="Human Resources Operator"]  The records pertaining to Operator Phantom’s background are incomplete. Plenty of information’s just missing.
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[name="Human Resources Operator"]  I don’t know who was previously responsible... They didn’t even fill in their name for it on HR’s table. Likely they were swept up in work and plain forgot.
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[name="Human Resources Operator"]  We’ve had a lot of newcomers in recently, so it’s the perfect time to get all our data on all our operators sorted. Plenty of omissions like this coming to light, honestly.
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[name="Human Resources Operator"]  It’s nothing glaringly huge, but we’ve got to get it up to scratch, same as everything else.
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[name="Mint"]  Sounds like you’re having a tough time...
+    <t xml:space="preserve">[name="Human Resources Operator"]  The records pertaining to Operator Phantom's background are incomplete. Plenty of information's just missing.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Human Resources Operator"]  I don't know who was previously responsible... They didn't even fill in their name for it on HR's table. Likely they were swept up in work and plain forgot.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Human Resources Operator"]  We've had a lot of newcomers in recently, so it's the perfect time to get all our data on all our operators sorted. Plenty of omissions like this coming to light, honestly.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Human Resources Operator"]  It's nothing glaringly huge, but we've got to get it up to scratch, same as everything else.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Mint"]  Sounds like you're having a tough time...
 </t>
   </si>
   <si>
@@ -3024,15 +3024,15 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="Human Resources Operator"]  What’s your name?
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[name="Mint"]  Nice to meet you. I’m a new Caster Operator, codename Mint.
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[name="Human Resources Operator"]  Ah, I remember you. You’re the new girl that got separated during the last mission, right?
+    <t xml:space="preserve">[name="Human Resources Operator"]  What's your name?
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Mint"]  Nice to meet you. I'm a new Caster Operator, codename Mint.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Human Resources Operator"]  Ah, I remember you. You're the new girl that got separated during the last mission, right?
 </t>
   </si>
   <si>
@@ -3040,7 +3040,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="Mint"]  *whimper* I’m so sorry about that, and for all the trouble I caused...
+    <t xml:space="preserve">[name="Mint"]  *whimper* I'm so sorry about that, and for all the trouble I caused...
 </t>
   </si>
   <si>
@@ -3052,31 +3052,31 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="Human Resources Operator"]  She was upset with herself because she wasn’t watching her own back properly... at least, that’s what she said.
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[name="Mint"]  Huh? So she wasn’t... 
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[name="Human Resources Operator"]  I know. There’s times Miss Skyfire can be pretty strict with other people, right?
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[name="Human Resources Operator"]  But she’s much stricter with herself, really. Take last time as proof. She’ll reflect on herself first before she starts grumbling at anyone else.
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[name="Human Resources Operator"]  And you can’t blame her, really.
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[name="Human Resources Operator"]  Once you’ve seen her pitting herself against her own standards, upset at herself for falling so visibly and palpably short, getting chewed out by her from time to time doesn’t feel so rough...
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[name="Mint"]  You’re right! That’s how she really is. I admire her a lot for that. 
+    <t xml:space="preserve">[name="Human Resources Operator"]  She was upset with herself because she wasn't watching her own back properly... at least, that's what she said.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Mint"]  Huh? So she wasn't... 
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Human Resources Operator"]  I know. There's times Miss Skyfire can be pretty strict with other people, right?
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Human Resources Operator"]  But she's much stricter with herself, really. Take last time as proof. She'll reflect on herself first before she starts grumbling at anyone else.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Human Resources Operator"]  And you can't blame her, really.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Human Resources Operator"]  Once you've seen her pitting herself against her own standards, upset at herself for falling so visibly and palpably short, getting chewed out by her from time to time doesn't feel so rough...
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Mint"]  You're right! That's how she really is. I admire her a lot for that. 
 </t>
   </si>
   <si>
@@ -3084,19 +3084,19 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="Human Resources Operator"]  We’ve definitely taken on a lot of fresh blood in a short time. Whether it’s us, Medical or Logistics, we’re all a little swamped.
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[name="Human Resources Operator"]  Oh, er, right, Operator Phantom’s file.
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[name="Human Resources Operator"]  Circling back to that, we’ve got a decent amount of operators’ files in incomplete states. In general, standard protocol for small questions is we’d find the person themselves and ask directly.
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[name="Human Resources Operator"]  But Operator Phantom’s kind of tricky in this regard... I’m gonna put it straight. We can barely figure out where he is.
+    <t xml:space="preserve">[name="Human Resources Operator"]  We've definitely taken on a lot of fresh blood in a short time. Whether it's us, Medical or Logistics, we're all a little swamped.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Human Resources Operator"]  Oh, er, right, Operator Phantom's file.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Human Resources Operator"]  Circling back to that, we've got a decent amount of operators' files in incomplete states. In general, standard protocol for small questions is we'd find the person themselves and ask directly.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Human Resources Operator"]  But Operator Phantom's kind of tricky in this regard... I'm gonna put it straight. We can barely figure out where he is.
 </t>
   </si>
   <si>
@@ -3104,23 +3104,23 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="Human Resources Operator"]  No. Our mission records say he’s not out in the field for anything.
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[name="Human Resources Operator"]  Operator Phantom seems to be deliberately avoiding people. Add in his Arts, and we’ve had our work cut out finding him.
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[name="Human Resources Operator"]  We could lie in wait in places, or ask Miss Closure for help... but we just can’t spare a single person and waiting’s not an option, and as for the latter, well, mm...
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[name="Human Resources Operator"]  I heard he caused some trouble when he joined us and now Miss Closure’s... pissed off with him.
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[name="Human Resources Operator"]  So we’d probably be telling her 'this is your chance to give him a public execution,' right? It’s hard to even guess what would happen afterwards. 
+    <t xml:space="preserve">[name="Human Resources Operator"]  No. Our mission records say he's not out in the field for anything.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Human Resources Operator"]  Operator Phantom seems to be deliberately avoiding people. Add in his Arts, and we've had our work cut out finding him.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Human Resources Operator"]  We could lie in wait in places, or ask Miss Closure for help... but we just can't spare a single person and waiting's not an option, and as for the latter, well, mm...
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Human Resources Operator"]  I heard he caused some trouble when he joined us and now Miss Closure's... pissed off with him.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Human Resources Operator"]  So we'd probably be telling her 'this is your chance to give him a public execution,' right? It's hard to even guess what would happen afterwards. 
 </t>
   </si>
   <si>
@@ -3128,11 +3128,11 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="Mint"]  Are Mr. Phantom’s Originium Arts similar to Mr. Ethan’s? Or... um, waitletmelookatthemanual. Right! Like Miss Manticore’s? 
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[name="Mint"]  She has the ability to hide where she is too, doesn’t she?
+    <t xml:space="preserve">[name="Mint"]  Are Mr. Phantom's Originium Arts similar to Mr. Ethan's? Or... um, waitletmelookatthemanual. Right! Like Miss Manticore's? 
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Mint"]  She has the ability to hide where she is too, doesn't she?
 </t>
   </si>
   <si>
@@ -3140,11 +3140,11 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="Human Resources Operator"]  All you had to do was blink and she’d slip away unnoticed. That was a whole thing to deal with.
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[Decision(options="Manticore’s got plenty of anxieties of her own.;......;She might be in this room with us RIGHT NOW.", values="1;2;3")]
+    <t xml:space="preserve">[name="Human Resources Operator"]  All you had to do was blink and she'd slip away unnoticed. That was a whole thing to deal with.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[Decision(options="Manticore's got plenty of anxieties of her own.;......;She might be in this room with us RIGHT NOW.", values="1;2;3")]
 </t>
   </si>
   <si>
@@ -3160,15 +3160,15 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="Human Resources Operator"]  Judging by your reaction... you recall too, don’t you, Doctor?
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[name="Human Resources Operator"]  That one time you only remembered Manticore was in the room after you’d already locked up.
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[name="Mint"]  What?! Miss Manticore’s in here?!  
+    <t xml:space="preserve">[name="Human Resources Operator"]  Judging by your reaction... you recall too, don't you, Doctor?
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Human Resources Operator"]  That one time you only remembered Manticore was in the room after you'd already locked up.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Mint"]  What?! Miss Manticore's in here?!  
 </t>
   </si>
   <si>
@@ -3176,11 +3176,11 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="Human Resources Operator"]  You’re kidding, right? Really, Doctor, you can’t just joke like that... 
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[name="Human Resources Operator"]  Miss Manticore’s case was more helplessness. I get the feeling that Operator Phantom’s just using his Originium Arts to dodge us. On purpose.
+    <t xml:space="preserve">[name="Human Resources Operator"]  You're kidding, right? Really, Doctor, you can't just joke like that... 
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Human Resources Operator"]  Miss Manticore's case was more helplessness. I get the feeling that Operator Phantom's just using his Originium Arts to dodge us. On purpose.
 </t>
   </si>
   <si>
@@ -3188,11 +3188,11 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="Human Resources Operator"]  Dr. Kal’tsit and Amiya said we could ask you to help us out with this. Do you have any good ideas, Doctor?
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[Decision(options="It’s not like there isn’t a way.", values="1")]
+    <t xml:space="preserve">[name="Human Resources Operator"]  Dr. Kal'tsit and Amiya said we could ask you to help us out with this. Do you have any good ideas, Doctor?
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[Decision(options="It's not like there isn't a way.", values="1")]
 </t>
   </si>
   <si>
@@ -3200,7 +3200,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[Decision(options="At times like this, we seek the Madam’s opinion.", values="1")]
+    <t xml:space="preserve">[Decision(options="At times like this, we seek the Madam's opinion.", values="1")]
 </t>
   </si>
   <si>
@@ -3216,7 +3216,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="Phantom"]  It’s that dream...
+    <t xml:space="preserve">[name="Phantom"]  It's that dream...
 </t>
   </si>
   <si>
@@ -3232,11 +3232,11 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="Phantom"]  (They couldn’t ever appear again. They shouldn’t ever appear again.)  
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[name="Phantom"]  (...Spirits, I’ve long since laid you to rest.) 
+    <t xml:space="preserve">[name="Phantom"]  (They couldn't ever appear again. They shouldn't ever appear again.)  
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Phantom"]  (...Spirits, I've long since laid you to rest.) 
 </t>
   </si>
   <si>
@@ -3276,11 +3276,11 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="Phantom"]  No, I’m fine.
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[name="Phantom"]  You oughtn’t worry. I’m used to it.
+    <t xml:space="preserve">[name="Phantom"]  No, I'm fine.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Phantom"]  You oughtn't worry. I'm used to it.
 </t>
   </si>
   <si>
@@ -3296,7 +3296,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="Phantom"]  Of course. I’m well aware we have other guests.
+    <t xml:space="preserve">[name="Phantom"]  Of course. I'm well aware we have other guests.
 </t>
   </si>
   <si>
@@ -3312,7 +3312,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="Phantom"]  I fear it’s not too good a morning.
+    <t xml:space="preserve">[name="Phantom"]  I fear it's not too good a morning.
 </t>
   </si>
   <si>
@@ -3320,7 +3320,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="Phantom"]  You may find it easier than you’d think.
+    <t xml:space="preserve">[name="Phantom"]  You may find it easier than you'd think.
 </t>
   </si>
   <si>
@@ -3332,11 +3332,11 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="Mint"]  Oh, I’ve been made.
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[name="Mint"]  That’s incredible! I was making so sure to tip-toe all carefully!
+    <t xml:space="preserve">[name="Mint"]  Oh, I've been made.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Mint"]  That's incredible! I was making so sure to tip-toe all carefully!
 </t>
   </si>
   <si>
@@ -3344,7 +3344,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="Mint"]  Er, I feel he didn’t specifically mean your actual weight.
+    <t xml:space="preserve">[name="Mint"]  Er, I feel he didn't specifically mean your actual weight.
 </t>
   </si>
   <si>
@@ -3352,11 +3352,11 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="Phantom"]  Ms. Christine rarely brings guests. It seems you’ve gained her favor.
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[Decision(options="I’m honored.;Where were you hiding?", values="1;2")]
+    <t xml:space="preserve">[name="Phantom"]  Ms. Christine rarely brings guests. It seems you've gained her favor.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[Decision(options="I'm honored.;Where were you hiding?", values="1;2")]
 </t>
   </si>
   <si>
@@ -3380,7 +3380,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="Human Resources Operator"]  Anyhows, the important thing is we’re finally face to face. Nice to meet you, Operator Phantom. 
+    <t xml:space="preserve">[name="Human Resources Operator"]  Anyhows, the important thing is we're finally face to face. Nice to meet you, Operator Phantom. 
 </t>
   </si>
   <si>
@@ -3388,7 +3388,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="Human Resources Operator"]  I’m from the HR department. There’s a file of yours with an incomplete section. We only have a few questions, just so we can check our knowledge from the top.
+    <t xml:space="preserve">[name="Human Resources Operator"]  I'm from the HR department. There's a file of yours with an incomplete section. We only have a few questions, just so we can check our knowledge from the top.
 </t>
   </si>
   <si>
@@ -3400,7 +3400,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="Human Resources Operator"]  Thank you for your cooperation. Don’t worry, all you’ll need to answer is a few simple questions. 
+    <t xml:space="preserve">[name="Human Resources Operator"]  Thank you for your cooperation. Don't worry, all you'll need to answer is a few simple questions. 
 </t>
   </si>
   <si>
@@ -3416,7 +3416,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="Human Resources Operator"]  Based on your feedback, Mr. Phantom, the techs can make the necessary followup adjustments to your equipment’s respective functionality for you.
+    <t xml:space="preserve">[name="Human Resources Operator"]  Based on your feedback, Mr. Phantom, the techs can make the necessary followup adjustments to your equipment's respective functionality for you.
 </t>
   </si>
   <si>
@@ -3428,7 +3428,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="Phantom"]  So long as syllables don’t form melodies, there are no problems.
+    <t xml:space="preserve">[name="Phantom"]  So long as syllables don't form melodies, there are no problems.
 </t>
   </si>
   <si>
@@ -3440,7 +3440,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="Human Resources Operator"] If there’s no problems, that’s good!
+    <t xml:space="preserve">[name="Human Resources Operator"] If there's no problems, that's good!
 </t>
   </si>
   <si>
@@ -3464,11 +3464,11 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="Human Resources Operator"]  Hm... well, that’s strange.
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[name="Human Resources Operator"]  Based on the info you gave us, we sent someone from our Victoria branch to the local area to verify, and reality seems to be at odds with what you’ve told us, Mr. Phantom.
+    <t xml:space="preserve">[name="Human Resources Operator"]  Hm... well, that's strange.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Human Resources Operator"]  Based on the info you gave us, we sent someone from our Victoria branch to the local area to verify, and reality seems to be at odds with what you've told us, Mr. Phantom.
 </t>
   </si>
   <si>
@@ -3492,7 +3492,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">What’s wrong?
+    <t xml:space="preserve">What's wrong?
 </t>
   </si>
   <si>
@@ -3528,7 +3528,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="Phantom"]  Celaiblason. Could it be that it doesn’t even exist? 
+    <t xml:space="preserve">[name="Phantom"]  Celaiblason. Could it be that it doesn't even exist? 
 </t>
   </si>
   <si>
@@ -3536,19 +3536,19 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="Human Resources Operator"]  Investigation couldn’t find any nomadic city with a similar name, nor any area...
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[name="Human Resources Operator"]  Mr. Phantom, I should remind you that if you don’t want your place of birth to be known, you have other options. Applying for temporary confidentiality or a requisite level of access authority are both possible.
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[name="Human Resources Operator"]  But if you’re going to lie about the most basic things, then that’s a completely different matter!
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[name="Human Resources Operator"]  We give operators the room to conceal, keep confidential, or refuse explicitly to provide some information, but lying... that doesn’t help either of us to build trust in the other. In any way, at all.
+    <t xml:space="preserve">[name="Human Resources Operator"]  Investigation couldn't find any nomadic city with a similar name, nor any area...
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Human Resources Operator"]  Mr. Phantom, I should remind you that if you don't want your place of birth to be known, you have other options. Applying for temporary confidentiality or a requisite level of access authority are both possible.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Human Resources Operator"]  But if you're going to lie about the most basic things, then that's a completely different matter!
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Human Resources Operator"]  We give operators the room to conceal, keep confidential, or refuse explicitly to provide some information, but lying... that doesn't help either of us to build trust in the other. In any way, at all.
 </t>
   </si>
   <si>
@@ -3556,7 +3556,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="Phantom"]  ...I wasn’t lying.
+    <t xml:space="preserve">[name="Phantom"]  ...I wasn't lying.
 </t>
   </si>
   <si>
@@ -3564,7 +3564,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="Phantom"]  When you were registering me, I spoke the truth. I didn’t even think to lie.
+    <t xml:space="preserve">[name="Phantom"]  When you were registering me, I spoke the truth. I didn't even think to lie.
 </t>
   </si>
   <si>
@@ -3572,7 +3572,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="Phantom"]  So they said. That our village was razed by a Catastrophe. That the fields were engulfed by war’s flames. That the ever-travelling troupe was passing by. That in the stead of each home the children had lost, the troupe took them in.
+    <t xml:space="preserve">[name="Phantom"]  So they said. That our village was razed by a Catastrophe. That the fields were engulfed by war's flames. That the ever-travelling troupe was passing by. That in the stead of each home the children had lost, the troupe took them in.
 </t>
   </si>
   <si>
@@ -3588,7 +3588,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="Human Resources Operator"]  This is really, really weird. What’s even going on here... Could it be your guardians had made a mistake?
+    <t xml:space="preserve">[name="Human Resources Operator"]  This is really, really weird. What's even going on here... Could it be your guardians had made a mistake?
 </t>
   </si>
   <si>
@@ -3600,11 +3600,11 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="Human Resources Operator"]Yeah. We’ll just have to leave it like this for now.
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[name="Human Resources Operator"]Provided there’s no intentional falsification going on, we can flag up basic information as special procedure, and then freely supplement or modify later as needed.
+    <t xml:space="preserve">[name="Human Resources Operator"]Yeah. We'll just have to leave it like this for now.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Human Resources Operator"]Provided there's no intentional falsification going on, we can flag up basic information as special procedure, and then freely supplement or modify later as needed.
 </t>
   </si>
   <si>
@@ -3612,27 +3612,27 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="Mint"]  I’d always been under the impression that no matter where you go, they’d be strict all the same about files like this.
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[name="Mint"]  Universities in Victoria are like that! If there’s any sort of problem with your files, in the most serious cases, they’ll probably suspend you!
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[name="Human Resources Operator"]Broadly speaking, yeah, it’s a pretty strict matter.
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[name="Human Resources Operator"]But a lot of Rhodes Island’s people are out of the ordinary. There’s no practical, clear-cut blanket to us...
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[name="Human Resources Operator"]Take Cuora’s case. She really doesn’t remember anything at all, and we’ve turned up short on any way to help her with that.
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[name="Human Resources Operator"]And there’s a couple of operators with very unique circumstances. Once we’ve determined that they won’t jeopardize Rhodes Island, we can bend the rules a little as needed.
+    <t xml:space="preserve">[name="Mint"]  I'd always been under the impression that no matter where you go, they'd be strict all the same about files like this.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Mint"]  Universities in Victoria are like that! If there's any sort of problem with your files, in the most serious cases, they'll probably suspend you!
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Human Resources Operator"]Broadly speaking, yeah, it's a pretty strict matter.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Human Resources Operator"]But a lot of Rhodes Island's people are out of the ordinary. There's no practical, clear-cut blanket to us...
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Human Resources Operator"]Take Cuora's case. She really doesn't remember anything at all, and we've turned up short on any way to help her with that.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Human Resources Operator"]And there's a couple of operators with very unique circumstances. Once we've determined that they won't jeopardize Rhodes Island, we can bend the rules a little as needed.
 </t>
   </si>
   <si>
@@ -3644,23 +3644,23 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="Human Resources Operator"]If what you’ve just said is true, then it’s not even exactly your fault, Mr. Phantom... In any case, we can try and look for it again later.
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[name="Human Resources Operator"]If we still don’t get anything after that, I’ll report the whole truth of it upstairs and leave the judgment to them. 
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[name="Human Resources Operator"]But don’t let it weigh on you! Amiya never really lets all this clerical stuff cloud her head!
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[name="Human Resources Operator"]  Hmm, let me see what else there is... ah, right. Can I ask what your motivation for joining Rhodes Island is? It’s just a question I have to ask. 
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[name="Human Resources Operator"]Given you’re Infected, I assume it’s for treatment of Oripathy?
+    <t xml:space="preserve">[name="Human Resources Operator"]If what you've just said is true, then it's not even exactly your fault, Mr. Phantom... In any case, we can try and look for it again later.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Human Resources Operator"]If we still don't get anything after that, I'll report the whole truth of it upstairs and leave the judgment to them. 
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Human Resources Operator"]But don't let it weigh on you! Amiya never really lets all this clerical stuff cloud her head!
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Human Resources Operator"]  Hmm, let me see what else there is... ah, right. Can I ask what your motivation for joining Rhodes Island is? It's just a question I have to ask. 
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Human Resources Operator"]Given you're Infected, I assume it's for treatment of Oripathy?
 </t>
   </si>
   <si>
@@ -3668,11 +3668,11 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="Human Resources Operator"]Huh? It’s not?
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[name="Phantom"]  I’m looking for someone.
+    <t xml:space="preserve">[name="Human Resources Operator"]Huh? It's not?
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Phantom"]  I'm looking for someone.
 </t>
   </si>
   <si>
@@ -3680,11 +3680,11 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="Phantom"]  ...I can’t be sure.
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[name="Phantom"]  I’m looking for someone. There is something I need to find out, for which I need to find the person who knows. 
+    <t xml:space="preserve">[name="Phantom"]  ...I can't be sure.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Phantom"]  I'm looking for someone. There is something I need to find out, for which I need to find the person who knows. 
 </t>
   </si>
   <si>
@@ -3704,7 +3704,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="Mint"]  For that matter, how can you be sure the person you’re looking for is here in Rhodes Island?
+    <t xml:space="preserve">[name="Mint"]  For that matter, how can you be sure the person you're looking for is here in Rhodes Island?
 </t>
   </si>
   <si>
@@ -3728,7 +3728,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="Human Resources Operator"](Is Operator Phantom really doing alright? He makes me feel like he’s anything but alright! Are you sure he doesn’t need another checkup with Medical?)  
+    <t xml:space="preserve">[name="Human Resources Operator"](Is Operator Phantom really doing alright? He makes me feel like he's anything but alright! Are you sure he doesn't need another checkup with Medical?)  
 </t>
   </si>
   <si>
@@ -3736,7 +3736,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[Decision(options="I don’t think his situation is entirely because of Oripathy.", values="1")]
+    <t xml:space="preserve">[Decision(options="I don't think his situation is entirely because of Oripathy.", values="1")]
 </t>
   </si>
   <si>
@@ -3748,7 +3748,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[Decision(options="Right. I’ve been meaning to ask from the start.", values="1")]
+    <t xml:space="preserve">[Decision(options="Right. I've been meaning to ask from the start.", values="1")]
 </t>
   </si>
   <si>
@@ -3824,7 +3824,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="Mint"]  (Celaiblason, Celaiblason. It’s so strange. I feel like I’ve heard that name for a place somewhere before...)
+    <t xml:space="preserve">[name="Mint"]  (Celaiblason, Celaiblason. It's so strange. I feel like I've heard that name for a place somewhere before...)
 </t>
   </si>
   <si>
@@ -3836,11 +3836,11 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="Mint"]  I can’t remember at all!
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[name="Mint"]  Oh, forget it. I’ll go borrow some books and see if I can find anything there.
+    <t xml:space="preserve">[name="Mint"]  I can't remember at all!
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Mint"]  Oh, forget it. I'll go borrow some books and see if I can find anything there.
 </t>
   </si>
   <si>
@@ -3856,15 +3856,15 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="Rhodes Island Operator"]  You’re... a new operator, I think. Got any troubles, or?
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[name="Mint"]  S-Sorry about that! It’s not your fault. Just my overreaction.
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[name="Mint"]  There’s just this question I can’t quite figure out, and it’s got me a little lost...
+    <t xml:space="preserve">[name="Rhodes Island Operator"]  You're... a new operator, I think. Got any troubles, or?
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Mint"]  S-Sorry about that! It's not your fault. Just my overreaction.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Mint"]  There's just this question I can't quite figure out, and it's got me a little lost...
 </t>
   </si>
   <si>
@@ -3872,11 +3872,11 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="Rhodes Island Operator"]  No need to be reserved about it. Call it my apology for frightening you. I’ll listen to what’s on your mind, if you want. If I can help with any of it, that’s all the better. 
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[name="Mint"] Thank you... you’re such a nice person!
+    <t xml:space="preserve">[name="Rhodes Island Operator"]  No need to be reserved about it. Call it my apology for frightening you. I'll listen to what's on your mind, if you want. If I can help with any of it, that's all the better. 
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Mint"] Thank you... you're such a nice person!
 </t>
   </si>
   <si>
@@ -3888,11 +3888,11 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="Rhodes Island Operator"]  What were you saying before about something you couldn’t remember?
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[name="Mint"]  So you heard that. I was thinking about the name of a place... Celaiblason. It gives me the nagging feeling I’ve heard it before, but I just can’t think of where.  
+    <t xml:space="preserve">[name="Rhodes Island Operator"]  What were you saying before about something you couldn't remember?
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Mint"]  So you heard that. I was thinking about the name of a place... Celaiblason. It gives me the nagging feeling I've heard it before, but I just can't think of where.  
 </t>
   </si>
   <si>
@@ -3908,7 +3908,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="Rhodes Island Operator"]  I never thought I’d hear that name again.
+    <t xml:space="preserve">[name="Rhodes Island Operator"]  I never thought I'd hear that name again.
 </t>
   </si>
   <si>
@@ -3924,7 +3924,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="Rhodes Island Operator"]  I heard someone mouthing off about its name. Saying it’s not one people ever mention anymore, how you only remember if you should’ve been buried long ago in the rotting ruins of the past.
+    <t xml:space="preserve">[name="Rhodes Island Operator"]  I heard someone mouthing off about its name. Saying it's not one people ever mention anymore, how you only remember if you should've been buried long ago in the rotting ruins of the past.
 </t>
   </si>
   <si>
@@ -3940,11 +3940,11 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="Rhodes Island Operator"]  Do you have time for a story? I’ve got one to tell. 
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[name="Rhodes Island Operator"]  It’s about Celaiblason, and about its people. About a group of children who lost their shelter, and about the travelling troupe passing by that little village...
+    <t xml:space="preserve">[name="Rhodes Island Operator"]  Do you have time for a story? I've got one to tell. 
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Rhodes Island Operator"]  It's about Celaiblason, and about its people. About a group of children who lost their shelter, and about the traveling troupe passing by that little village...
 </t>
   </si>
   <si>
@@ -3952,7 +3952,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="Rhodes Island Operator"] Let’s go somewhere a little quieter first, though.
+    <t xml:space="preserve">[name="Rhodes Island Operator"] Let's go somewhere a little quieter first, though.
 </t>
   </si>
   <si>
